--- a/Daily Work Pc.xlsx
+++ b/Daily Work Pc.xlsx
@@ -15,8 +15,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16-09-21 to 21-09-21</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Stock Entry Delivery &amp; Received</t>
   </si>
@@ -42,9 +76,6 @@
     <t>Program  Wise Delivery Challan Entry</t>
   </si>
   <si>
-    <t>4 Dayes</t>
-  </si>
-  <si>
     <t>Reporting Date</t>
   </si>
   <si>
@@ -58,13 +89,25 @@
   </si>
   <si>
     <t>21.09.21</t>
+  </si>
+  <si>
+    <t>6 Dayes</t>
+  </si>
+  <si>
+    <t>Issue Pending</t>
+  </si>
+  <si>
+    <t>20-09-21</t>
+  </si>
+  <si>
+    <t>21-09-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +151,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -501,11 +557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +574,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -526,33 +582,33 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -561,34 +617,43 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -629,6 +694,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Daily Work Pc.xlsx
+++ b/Daily Work Pc.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -29,7 +29,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -38,7 +38,31 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+16-09-21 to 21-09-21</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 16-09-21 to 21-09-21</t>
@@ -50,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Stock Entry Delivery &amp; Received</t>
   </si>
@@ -85,29 +109,44 @@
     <t>ok</t>
   </si>
   <si>
-    <t>20.06.21</t>
-  </si>
-  <si>
-    <t>21.09.21</t>
-  </si>
-  <si>
-    <t>6 Dayes</t>
-  </si>
-  <si>
     <t>Issue Pending</t>
   </si>
   <si>
     <t>20-09-21</t>
   </si>
   <si>
-    <t>21-09-21</t>
+    <t>23-09-21</t>
+  </si>
+  <si>
+    <t>24-09-21</t>
+  </si>
+  <si>
+    <t>25-09-21</t>
+  </si>
+  <si>
+    <t>Fabric Received</t>
+  </si>
+  <si>
+    <t>9 Dayes</t>
+  </si>
+  <si>
+    <t>24.09.21</t>
+  </si>
+  <si>
+    <t>25.09.21</t>
+  </si>
+  <si>
+    <t>4 Dayes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +164,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -156,25 +188,31 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,28 +220,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,101 +649,172 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="42.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="G5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="G6" s="3">
+        <v>44455</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44456</v>
+      </c>
+      <c r="I6" s="3">
+        <v>44457</v>
+      </c>
+      <c r="J6" s="3">
+        <v>44458</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44459</v>
+      </c>
+      <c r="L6" s="3">
+        <v>44460</v>
+      </c>
+      <c r="M6" s="3">
+        <v>44461</v>
+      </c>
+      <c r="N6" s="3">
+        <v>44462</v>
+      </c>
+      <c r="O6" s="3">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3">
+  <conditionalFormatting sqref="K3">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -672,7 +823,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D3:D1048576">
+  <conditionalFormatting sqref="D1:E1 D3:E1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$C$4</formula>
     </cfRule>
@@ -682,12 +833,12 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="F3">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$C$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$C$4</formula>
     </cfRule>

--- a/Daily Work Pc.xlsx
+++ b/Daily Work Pc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,31 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-16-09-21 to 21-09-21</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Stock Entry Delivery &amp; Received</t>
   </si>
@@ -91,9 +67,6 @@
     <t xml:space="preserve">Daily Computer Entry </t>
   </si>
   <si>
-    <t>19.09.21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Program Sheet Entry </t>
   </si>
   <si>
@@ -137,6 +110,12 @@
   </si>
   <si>
     <t>4 Dayes</t>
+  </si>
+  <si>
+    <t>26-09-21</t>
+  </si>
+  <si>
+    <t>27-09-22</t>
   </si>
 </sst>
 </file>
@@ -239,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,10 +259,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -347,6 +329,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -394,7 +379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,7 +414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O11"/>
+  <dimension ref="A2:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,50 +636,50 @@
     <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="21.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="18" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="10"/>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="11"/>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -704,43 +689,49 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3">
+        <v>15</v>
+      </c>
+      <c r="G6" s="15">
         <v>44455</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="15">
         <v>44456</v>
       </c>
       <c r="I6" s="3">
@@ -764,46 +755,53 @@
       <c r="O6" s="3">
         <v>44463</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="3">
+        <v>44464</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>44465</v>
+      </c>
+      <c r="R6" s="3">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
